--- a/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
+++ b/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
@@ -8094,13 +8094,13 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:007173</t>
+          <t>BCIO:007050</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>increase awareness of behaviour BCT</t>
+          <t>guide how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -8109,31 +8109,26 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>A &lt;behaviour change technique&gt; that draws attention to the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that provides guidance regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>This class concerns raising awareness of the behaviour itself.  Where a BCT increases awareness of the consequences of behaviour, rather than the behaviour itself, use "increase awareness of consequences BCT" or one of its child classes</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:007175</t>
+          <t>BCIO:007303</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>increase salience of behaviour BCT</t>
+          <t>suggest how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -8141,36 +8136,26 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>An &lt;increase awareness of behaviour BCT&gt; that makes the possibility of performing the behaviour more distinctive or prominent.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that provides a suggestion regarding how to perform the behaviour.</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>salience of behaviour</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>Mask use at the start of the Covid pandemic through symbols/signs of masks in public spaces</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:007174</t>
+          <t>BCIO:007055</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>increase awareness of option of novel behaviour BCT</t>
+          <t>demonstrate the behaviour BCT</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -8178,7 +8163,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>An &lt;increase awareness of behaviour BCT&gt; that draws attention to the possibility of performing a novel behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -8186,50 +8171,75 @@
           <t>behaviour change technique</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>modelling, observational learning</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>BCT6.1 Demonstration of the behaviour</t>
+        </is>
+      </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>This class concerns raising awareness of a novel behaviour that one might not have known was an option. If not a novel behaviour, consider "suggest how to perform behaviour BCT".</t>
+          <t>If advised to practice, also code 'practise behaviour BCT'; If provided with instructions on how to perform, also code 'instruct how to perform behaviour BCT'.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:007050</t>
+          <t>BCIO:007058</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>guide how to perform behaviour BCT</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>instruct how to perform a behaviour BCT</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>A &lt;behaviour change technique&gt; that provides guidance regarding how to perform the behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves telling the person how to perform the behaviour.</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>skills training, instruction</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>BCT4.1 Instruction on how to perform a behaviour</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>When the person attends classes such as exercise or cookery, code 'instruct how to perform behaviour BCT', 'practise behaviour BCT', and 'demonstrate the behaviour BCT'.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:007303</t>
+          <t>BCIO:007051</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>suggest how to perform behaviour BCT</t>
+          <t>agree on how to perform behaviour BCT</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8237,26 +8247,31 @@
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>A &lt;guide how to perform behaviour BCT&gt; that provides a suggestion regarding how to perform the behaviour.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves reaching consensus on how to perform the behaviour.</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>BCT4.1 Instruction on how to perform behaviour</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:007055</t>
+          <t>BCIO:050330</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>demonstrate the behaviour BCT</t>
+          <t>advise to avoid people who do an unwanted behaviour BCT</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -8264,49 +8279,34 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>A &lt;guide how to perform behaviour BCT&gt; that provides an observable sample of the performance of the behaviour for the person to aspire to or imitate.</t>
+          <t>A &lt;guide how to perform behaviour BCT&gt; that involves suggesting the person avoid spending time with others who do a behaviour that the person wants to reduce or stop.</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>modelling, observational learning</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>BCT6.1 Demonstration of the behaviour</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>If advised to practice, also code 'practise behaviour BCT'; If provided with instructions on how to perform, also code 'instruct how to perform behaviour BCT'.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BCIO:007058</t>
+          <t>BCIO:007173</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>instruct how to perform a behaviour BCT</t>
-        </is>
-      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>increase awareness of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>A &lt;guide how to perform behaviour BCT&gt; that involves telling the person how to perform the behaviour.</t>
+          <t>A &lt;behaviour change technique&gt; that draws attention to the behaviour.</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -8314,33 +8314,23 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>skills training, instruction</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>BCT4.1 Instruction on how to perform a behaviour</t>
-        </is>
-      </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>When the person attends classes such as exercise or cookery, code 'instruct how to perform behaviour BCT', 'practise behaviour BCT', and 'demonstrate the behaviour BCT'.</t>
+          <t>This class concerns raising awareness of the behaviour itself.  Where a BCT increases awareness of the consequences of behaviour, rather than the behaviour itself, use "increase awareness of consequences BCT" or one of its child classes</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BCIO:007051</t>
+          <t>BCIO:007175</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>agree on how to perform behaviour BCT</t>
+          <t>increase salience of behaviour BCT</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -8348,7 +8338,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>A &lt;guide how to perform behaviour BCT&gt; that involves reaching consensus on how to perform the behaviour.</t>
+          <t>An &lt;increase awareness of behaviour BCT&gt; that makes the possibility of performing the behaviour more distinctive or prominent.</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -8356,23 +8346,28 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>BCT4.1 Instruction on how to perform behaviour</t>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>salience of behaviour</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Mask use at the start of the Covid pandemic through symbols/signs of masks in public spaces</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BCIO:050330</t>
+          <t>BCIO:007174</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>advise to avoid people who do an unwanted behaviour BCT</t>
+          <t>increase awareness of option of novel behaviour BCT</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -8380,12 +8375,17 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>A &lt;guide how to perform behaviour BCT&gt; that involves suggesting the person avoid spending time with others who do a behaviour that the person wants to reduce or stop.</t>
+          <t>An &lt;increase awareness of behaviour BCT&gt; that draws attention to the possibility of performing a novel behaviour.</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>This class concerns raising awareness of a novel behaviour that one might not have known was an option. If not a novel behaviour, consider "suggest how to perform behaviour BCT".</t>
         </is>
       </c>
     </row>

--- a/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
+++ b/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
@@ -812,7 +812,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
+          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
+          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Genuss</t>
+          <t>jouissance</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BCIO:007201</t>
+          <t>BCIO:007292</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -11948,7 +11948,7 @@
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
-          <t>promise to remove consequence for outcome of behaviour BCT</t>
+          <t>remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -11956,7 +11956,7 @@
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>An &lt;outcome consequence BCT&gt; that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
+          <t>An &lt;outcome consequence BCT&gt; that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -11968,7 +11968,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BCIO:007196</t>
+          <t>BCIO:007289</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -11979,14 +11979,19 @@
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
         <is>
-          <t>promise to remove aversive consequence for outcome of behaviour BCT</t>
+          <t>remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is aversive.</t>
+          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is aversive.</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>To qualify as aversive, the consequence should have been aversively valued by the person receiving it.</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -11996,14 +12001,14 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>incentive to remove punishment</t>
+          <t>negative reinforcement, remove punishment</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BCIO:007234</t>
+          <t>BCIO:007291</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -12015,13 +12020,13 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>promise to remove aversive social consequence for outcome of behaviour BCT</t>
+          <t>remove aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -12036,14 +12041,14 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>incentive to remove social punishment</t>
+          <t>remove social punishment</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BCIO:007232</t>
+          <t>BCIO:007288</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -12055,13 +12060,13 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>promise to remove aversive material consequence for outcome of behaviour BCT</t>
+          <t>remove aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -12071,14 +12076,14 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>incentive to remove material punishment</t>
+          <t>remove material punishment</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BCIO:007217</t>
+          <t>BCIO:007296</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -12089,14 +12094,19 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>promise to remove positive consequence for outcome of behaviour BCT</t>
+          <t>remove positive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is positive.</t>
+          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is positive.</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>To qualify as positive, the consequence should have been positively valued by the person receiving it.</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -12106,14 +12116,14 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>threaten to remove reward</t>
+          <t>remove reward</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BCIO:007238</t>
+          <t>BCIO:007295</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -12125,18 +12135,13 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>promise to remove positive social consequence for outcome of behaviour BCT</t>
+          <t>remove positive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -12146,14 +12151,14 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>threaten to remove social reward</t>
+          <t>remove material reward</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BCIO:007236</t>
+          <t>BCIO:007298</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -12165,13 +12170,18 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>promise to remove positive material consequence for outcome of behaviour BCT</t>
+          <t>remove positive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
-          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -12181,14 +12191,14 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>threaten to remove material reward</t>
+          <t>remove social reward</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BCIO:007292</t>
+          <t>BCIO:007201</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -12198,7 +12208,7 @@
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
-          <t>remove consequence for outcome of behaviour BCT</t>
+          <t>promise to remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="H346" t="inlineStr"/>
@@ -12206,7 +12216,7 @@
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>An &lt;outcome consequence BCT&gt; that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
+          <t>An &lt;outcome consequence BCT&gt; that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -12218,7 +12228,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BCIO:007289</t>
+          <t>BCIO:007196</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -12229,19 +12239,14 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
         <is>
-          <t>remove aversive consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is aversive.</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>To qualify as aversive, the consequence should have been aversively valued by the person receiving it.</t>
+          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is aversive.</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -12251,14 +12256,14 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>negative reinforcement, remove punishment</t>
+          <t>incentive to remove punishment</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BCIO:007291</t>
+          <t>BCIO:007234</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -12270,13 +12275,13 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>remove aversive social consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -12291,14 +12296,14 @@
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>remove social punishment</t>
+          <t>incentive to remove social punishment</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BCIO:007288</t>
+          <t>BCIO:007232</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -12310,13 +12315,13 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>remove aversive material consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>A &lt;remove aversive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove aversive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -12326,14 +12331,14 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>remove material punishment</t>
+          <t>incentive to remove material punishment</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BCIO:007296</t>
+          <t>BCIO:007217</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -12344,19 +12349,14 @@
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr">
         <is>
-          <t>remove positive consequence for outcome of behaviour BCT</t>
+          <t>promise to remove positive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
-          <t>A &lt;remove consequence for outcome of behaviour BCT&gt; in which the consequence is positive.</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>To qualify as positive, the consequence should have been positively valued by the person receiving it.</t>
+          <t>A &lt;promise to remove consequence for outcome of behaviour BCT&gt; where the consequence is positive.</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -12366,14 +12366,14 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>remove reward</t>
+          <t>threaten to remove reward</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BCIO:007295</t>
+          <t>BCIO:007238</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -12385,13 +12385,18 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>remove positive material consequence for outcome of behaviour BCT</t>
+          <t>promise to remove positive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
-          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -12401,14 +12406,14 @@
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>remove material reward</t>
+          <t>threaten to remove social reward</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BCIO:007298</t>
+          <t>BCIO:007236</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -12420,18 +12425,13 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>remove positive social consequence for outcome of behaviour BCT</t>
+          <t>promise to remove positive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
-          <t>A &lt;remove positive consequence for outcome of behaviour BCT&gt; in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+          <t>A &lt;promise to remove positive consequence for outcome of behaviour BCT&gt; where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>remove social reward</t>
+          <t>threaten to remove material reward</t>
         </is>
       </c>
     </row>
@@ -14203,7 +14203,7 @@
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
         </is>
       </c>
     </row>
@@ -14363,7 +14363,7 @@
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
@@ -15434,7 +15434,7 @@
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
-          <t>human being</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G463" t="inlineStr"/>
@@ -16183,7 +16183,7 @@
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>spécification d’intervalle de dose</t>
+          <t>dose range specification</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
@@ -16531,7 +16531,7 @@
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
@@ -16543,7 +16543,7 @@
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant &amp; there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr">
         <is>
-          <t>realizable entity</t>
+          <t>realizable</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -16973,7 +16973,7 @@
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
